--- a/data/trans_dic/P1803_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1803_2016_2023-Estudios-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.03732827158121402</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.04035723974047606</v>
+        <v>0.04035723974047605</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04149197209395859</v>
@@ -624,7 +624,7 @@
         <v>0.03969616787230585</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05587361496823517</v>
+        <v>0.05587361496823515</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02454795979798964</v>
+        <v>0.02495917012553769</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02662897942808022</v>
+        <v>0.02745492783513149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03058378242627453</v>
+        <v>0.02894828960981292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05351828867491123</v>
+        <v>0.05448815669744186</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03085420406336968</v>
+        <v>0.03074752115559723</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04715039492107233</v>
+        <v>0.04646926887186501</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05209805744978342</v>
+        <v>0.05242081066831089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05823624366410379</v>
+        <v>0.05730105949537891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0574391033407724</v>
+        <v>0.05729922581166806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08186171096522142</v>
+        <v>0.08101095495175578</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04979834787744003</v>
+        <v>0.05155363315150831</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06691506372903577</v>
+        <v>0.06631629773396795</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.04761356607750025</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.08544535962334726</v>
+        <v>0.08544535962334728</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03474384779064493</v>
+        <v>0.03397902178813717</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06496261813141177</v>
+        <v>0.06589916619871894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04254781397836812</v>
+        <v>0.0432484716350628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08296620854549006</v>
+        <v>0.08366733559075373</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04159788610980468</v>
+        <v>0.04089221577355164</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0781658140535665</v>
+        <v>0.07789608559085841</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05262858594478677</v>
+        <v>0.05179760698943435</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08919567433506638</v>
+        <v>0.09008347569147601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0641535362589353</v>
+        <v>0.06446489308828993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1056234701801528</v>
+        <v>0.1059275722345523</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.055776785717344</v>
+        <v>0.05468392712175087</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09531379793545337</v>
+        <v>0.09459452849667793</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.06933250744671157</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1222558746037987</v>
+        <v>0.1222558746037986</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.08801491481619725</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04842163432597302</v>
+        <v>0.04896437992782741</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09853731569501861</v>
+        <v>0.09933154283273199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06388036615702797</v>
+        <v>0.06523399936569498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1264340543986779</v>
+        <v>0.1271356926481919</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06342207603732736</v>
+        <v>0.06238818417467532</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1180759489970936</v>
+        <v>0.1204833078674662</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09441697737403378</v>
+        <v>0.09613569243423845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1515961339319591</v>
+        <v>0.153670352019814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1150872255161965</v>
+        <v>0.1157061302611163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1744002414638268</v>
+        <v>0.1743353088979597</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09748902105477429</v>
+        <v>0.09746824353321533</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1542384712202407</v>
+        <v>0.1548280848084523</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.04572736421381191</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08009702776724301</v>
+        <v>0.08009702776724302</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.05514083951912957</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03881274891763604</v>
+        <v>0.0383376094483413</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07125726027010333</v>
+        <v>0.07077516410423687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04714342598434629</v>
+        <v>0.04847979208067267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09193335445535195</v>
+        <v>0.0907816305924893</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04542062053793901</v>
+        <v>0.04579254683737446</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08334430877537029</v>
+        <v>0.08344149600063198</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05421401192827929</v>
+        <v>0.05340071654893434</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09095920749145522</v>
+        <v>0.09091287429237319</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06358633304076085</v>
+        <v>0.06388667802872157</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1077741839582814</v>
+        <v>0.1085184882101908</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.056963040890384</v>
+        <v>0.05700612166702643</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09644777367581284</v>
+        <v>0.09684337974598757</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18518</v>
+        <v>18828</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15406</v>
+        <v>15883</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30420</v>
+        <v>28794</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43962</v>
+        <v>44759</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53964</v>
+        <v>53778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66009</v>
+        <v>65056</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39300</v>
+        <v>39543</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33691</v>
+        <v>33150</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>57132</v>
+        <v>56993</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>67245</v>
+        <v>66546</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>87098</v>
+        <v>90168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93679</v>
+        <v>92841</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>72142</v>
+        <v>70554</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>144903</v>
+        <v>146992</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84598</v>
+        <v>85991</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>180095</v>
+        <v>181617</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>169082</v>
+        <v>166214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>344029</v>
+        <v>342842</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109277</v>
+        <v>107552</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198957</v>
+        <v>200937</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>127556</v>
+        <v>128176</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>229278</v>
+        <v>229938</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>226715</v>
+        <v>222273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>419502</v>
+        <v>416336</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26481</v>
+        <v>26778</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>70118</v>
+        <v>70683</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35079</v>
+        <v>35823</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>92913</v>
+        <v>93429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>69512</v>
+        <v>68379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>170793</v>
+        <v>174275</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51635</v>
+        <v>52575</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>107874</v>
+        <v>109350</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63199</v>
+        <v>63539</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>128163</v>
+        <v>128115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>106851</v>
+        <v>106828</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>223100</v>
+        <v>223953</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>131095</v>
+        <v>129490</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>250874</v>
+        <v>249177</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>166515</v>
+        <v>171235</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>342638</v>
+        <v>338345</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>313844</v>
+        <v>316414</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>604055</v>
+        <v>604760</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>183114</v>
+        <v>180367</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>320239</v>
+        <v>320075</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>224593</v>
+        <v>225654</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>401677</v>
+        <v>404451</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>393599</v>
+        <v>393896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>699025</v>
+        <v>701893</v>
       </c>
     </row>
     <row r="20">
